--- a/final/clp_rankings_glicko.xlsx
+++ b/final/clp_rankings_glicko.xlsx
@@ -1,21 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003486EC-895E-CE45-A063-BEFCFF1017A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="720" yWindow="940" windowWidth="10220" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Eklent Kaci</t>
+  </si>
+  <si>
+    <t>Albin Ouschan</t>
+  </si>
+  <si>
+    <t>Niels Feijen</t>
+  </si>
+  <si>
+    <t>Denis Grabe</t>
+  </si>
+  <si>
+    <t>Ralf Souquet</t>
+  </si>
+  <si>
+    <t>David Alcaide</t>
+  </si>
+  <si>
+    <t>Mieszko Fortunski</t>
+  </si>
+  <si>
+    <t>Alex Kazakis</t>
+  </si>
+  <si>
+    <t>Marc Bijsterbosch</t>
+  </si>
+  <si>
+    <t>Casper Matikainen</t>
+  </si>
+  <si>
+    <t>Billy Thorpe</t>
+  </si>
+  <si>
+    <t>Naoyuki Oi</t>
+  </si>
+  <si>
+    <t>Darren Appleton</t>
+  </si>
+  <si>
+    <t>Roberto Gomez</t>
+  </si>
+  <si>
+    <t>Chris Melling</t>
+  </si>
+  <si>
+    <t>Jasmin Ouschan</t>
+  </si>
+  <si>
+    <t>Kelly Fisher</t>
+  </si>
+  <si>
+    <t>Chris Robinson</t>
+  </si>
+  <si>
+    <t>Kristina Tkach</t>
+  </si>
+  <si>
+    <t>BaselineElo</t>
+  </si>
+  <si>
+    <t>Glicko-2</t>
+  </si>
+  <si>
+    <t>MOVElo</t>
+  </si>
+  <si>
+    <t>WPARatings</t>
+  </si>
+  <si>
+    <t>RacksElo</t>
+  </si>
+  <si>
+    <t>InitialRatingsElo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +248,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +300,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,212 +493,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Player</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eklent Kaci</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albin Ouschan</t>
-        </is>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Niels Feijen</t>
-        </is>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Denis Grabe</t>
-        </is>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ralf Souquet</t>
-        </is>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>David Alcaide</t>
-        </is>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mieszko Fortunski</t>
-        </is>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Alex Kazakis</t>
-        </is>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Marc Bijsterbosch</t>
-        </is>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Casper Matikainen</t>
-        </is>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Billy Thorpe</t>
-        </is>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Naoyuki Oi</t>
-        </is>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Darren Appleton</t>
-        </is>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Roberto Gomez</t>
-        </is>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Chris Melling</t>
-        </is>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jasmin Ouschan</t>
-        </is>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Kelly Fisher</t>
-        </is>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Chris Robinson</t>
-        </is>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Kristina Tkach</t>
-        </is>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
         <v>19</v>
       </c>
     </row>

--- a/final/clp_rankings_glicko.xlsx
+++ b/final/clp_rankings_glicko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003486EC-895E-CE45-A063-BEFCFF1017A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D53903-167F-A44A-BBF7-BB8C8607C3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="940" windowWidth="10220" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="940" windowWidth="13180" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Player</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>InitialRatingsElo</t>
+  </si>
+  <si>
+    <t>FargoRate</t>
   </si>
 </sst>
 </file>
@@ -494,21 +497,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,22 +519,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -553,8 +559,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -562,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -576,8 +585,11 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -585,22 +597,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -608,22 +623,25 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -631,22 +649,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -660,16 +681,19 @@
         <v>6</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -677,22 +701,25 @@
         <v>14</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>7</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -700,22 +727,25 @@
         <v>1</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -723,22 +753,25 @@
         <v>16</v>
       </c>
       <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -746,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>12</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -760,8 +793,11 @@
       <c r="G11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -769,22 +805,25 @@
         <v>4</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -792,22 +831,25 @@
         <v>7</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -815,22 +857,25 @@
         <v>15</v>
       </c>
       <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>13</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -838,22 +883,25 @@
         <v>18</v>
       </c>
       <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -861,22 +909,25 @@
         <v>10</v>
       </c>
       <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -884,22 +935,25 @@
         <v>13</v>
       </c>
       <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -907,22 +961,25 @@
         <v>8</v>
       </c>
       <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>18</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -930,22 +987,25 @@
         <v>19</v>
       </c>
       <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -956,15 +1016,18 @@
         <v>19</v>
       </c>
       <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
         <v>17</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
     </row>

--- a/final/clp_rankings_glicko.xlsx
+++ b/final/clp_rankings_glicko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethbilliau/Desktop/stat143/repo/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D53903-167F-A44A-BBF7-BB8C8607C3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6677F969-3D57-4349-94BC-92AFCFE6C01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="940" windowWidth="13180" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,15 +500,15 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -522,19 +522,19 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -600,19 +600,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -629,16 +629,16 @@
         <v>4</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>4</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -655,16 +655,16 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
         <v>5</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -681,16 +681,16 @@
         <v>6</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -704,19 +704,19 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -730,19 +730,19 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>8</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -756,19 +756,19 @@
         <v>15</v>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
         <v>9</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -782,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -794,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -808,19 +808,19 @@
         <v>13</v>
       </c>
       <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
         <v>11</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -834,19 +834,19 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
         <v>12</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -860,19 +860,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
       <c r="H14">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -886,19 +886,19 @@
         <v>11</v>
       </c>
       <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
       <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
         <v>14</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,19 +912,19 @@
         <v>10</v>
       </c>
       <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
       <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
         <v>16</v>
-      </c>
-      <c r="G17">
-        <v>17</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -964,16 +964,16 @@
         <v>16</v>
       </c>
       <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>17</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -990,16 +990,16 @@
         <v>17</v>
       </c>
       <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
       <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
         <v>18</v>
-      </c>
-      <c r="G19">
-        <v>16</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1016,10 +1016,10 @@
         <v>19</v>
       </c>
       <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
         <v>19</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1033,5 +1033,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>